--- a/Copy of resource-data.xlsx
+++ b/Copy of resource-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gibson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FF4507-4FC9-4FCE-96DB-C47698955090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6A56B-E265-4D1E-9E8A-8B4B9D240326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="570" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="11430" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID Resources-HCP" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="340">
   <si>
     <t>Audience</t>
   </si>
@@ -1059,6 +1059,13 @@
   </si>
   <si>
     <t>https://bc-cpc.ca/cpc/wp-content/uploads/2020/03/HCA-needs-assessment-June-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For people working in healthcare:  Module 1 - COVID-19 and grief
+</t>
   </si>
 </sst>
 </file>
@@ -1694,11 +1701,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,6 +4616,29 @@
       </c>
       <c r="G126" s="35" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4746,9 +4776,10 @@
     <hyperlink ref="G124" r:id="rId119" xr:uid="{39402CC8-B8B4-46E1-A2B3-0BC13999F6E0}"/>
     <hyperlink ref="G125" r:id="rId120" xr:uid="{773B4E89-920C-4E26-ADE7-42B8B560AF08}"/>
     <hyperlink ref="G126" r:id="rId121" xr:uid="{4B849044-DB8C-4BBD-A4A2-C40A7F3D7022}"/>
+    <hyperlink ref="G127" r:id="rId122" display="https://mygrief.azurewebsites.net/mod/lesson/view.php?id=554&amp;utm_source=Canadian+Virtual+Hospice+%7C+Portail+canadien+en+soins+palliatifs&amp;utm_campaign=9d332db16d-EMAIL_CAMPAIGN_2020_Oct30MonthlyEnews_COPY_01&amp;utm_medium=email&amp;utm_term=0_8030ddb8bb-9d332db16d-427597322" xr:uid="{A3F97A57-6AD7-4CAB-A904-2D70E4B7B135}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId122"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId123"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4992,28 +5023,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
-      <UserInfo>
-        <DisplayName>Jing Xu</DisplayName>
-        <AccountId>3676</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eman Hassan</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5277,21 +5292,34 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Progress_x0020_Status xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <y9iw xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <Partner_x0020_References xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <rpgi xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <_x0069_b23 xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <tpcx xmlns="25d400d9-5b28-422d-aa61-69b545335a0f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="311946b4-224d-423c-891c-e94db618f1dc">
+      <UserInfo>
+        <DisplayName>Jing Xu</DisplayName>
+        <AccountId>3676</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eman Hassan</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
-    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5316,9 +5344,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0389F28-6455-476A-BA68-55D730824EA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64718D8-AFE2-4E90-AB45-D4C55AF4374A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25d400d9-5b28-422d-aa61-69b545335a0f"/>
+    <ds:schemaRef ds:uri="311946b4-224d-423c-891c-e94db618f1dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>